--- a/data/raw/emotions_dataset.xlsx
+++ b/data/raw/emotions_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabian/Projects/NeurIPS/AI system/E-star/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E16DC72-34B5-D14B-A341-1C9B4E2FF891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39A152A-55F2-A742-A0C7-CF92DB56B4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F8A35DD4-6571-414F-92B3-402616DB2F12}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="1078">
   <si>
     <t>Emotion</t>
   </si>
@@ -301,9 +301,6 @@
     <t>Yearning</t>
   </si>
   <si>
-    <t>Wonderment</t>
-  </si>
-  <si>
     <t>Vorfreude</t>
   </si>
   <si>
@@ -505,9 +502,6 @@
     <t>Gambaru is a Japanese word that roughly means to slog on tenaciously through tough times. This emotion embodies determination, effort, and resilience in the face of challenges. Gambaru encourages individuals to push through difficulties with diligence and tenacity, fostering a culture of hard work and personal growth.</t>
   </si>
   <si>
-    <t>check%20if%20they%20have%20arrived</t>
-  </si>
-  <si>
     <t>Shinrin-yoku</t>
   </si>
   <si>
@@ -580,9 +574,6 @@
     <t>The feeling of realising you do not fit into a certain context or environment you are in, feeling awkward or uncomfortable.</t>
   </si>
   <si>
-    <t>of%20proportionality%2C”%20Lele%20says.</t>
-  </si>
-  <si>
     <t>Rückkehrunruhe</t>
   </si>
   <si>
@@ -709,9 +700,6 @@
     <t>Wistful describes a gentle sadness tinged with longing, often accompanied by nostalgic reflection. This emotion combines melancholy with fond remembrance of past experiences or missed opportunities.</t>
   </si>
   <si>
-    <t>Wonderment is a state of awe and amazement, often experienced in the presence of something extraordinary or beautiful.</t>
-  </si>
-  <si>
     <t>A sense of complete and perfect accomplishment</t>
   </si>
   <si>
@@ -2468,13 +2456,838 @@
   </si>
   <si>
     <t>Wabi-sabi is a Japanese aesthetic and philosophical concept that finds beauty in imperfection, impermanence, and the incomplete. This emotion embraces the natural cycle of growth and decay, valuing simplicity, authenticity, and the subtle nuances of aging and weathering. Wabi-sabi encourages individuals to appreciate the unique character and history embedded in objects and environments, fostering a sense of peace and acceptance of life's transient nature.</t>
+  </si>
+  <si>
+    <t>Aroha</t>
+  </si>
+  <si>
+    <t>Aroha is a Māori word that translates to 'love,' but its meaning extends far beyond the romantic sense. It encompasses love, compassion, empathy, and a deep, spiritual connection to one's community, ancestors, and the natural world. Aroha represents a philosophy of care and respect for all things.</t>
+  </si>
+  <si>
+    <t>Māori</t>
+  </si>
+  <si>
+    <t>Ayni</t>
+  </si>
+  <si>
+    <t>Ayni is a Quechua term for the principle of reciprocity and mutual aid that governs community life. It represents an emotional and ethical commitment to helping others with the understanding that they will help you in return. It's a feeling of interconnectedness and shared responsibility.</t>
+  </si>
+  <si>
+    <t>Quechua</t>
+  </si>
+  <si>
+    <t>Cianalas</t>
+  </si>
+  <si>
+    <t>A Scottish Gaelic word, Cianalas describes a profound sense of longing or homesickness for a place or time, often one that is deeply connected to one's heritage or past. It is a bittersweet and deep-seated yearning for the Scottish Highlands and islands.</t>
+  </si>
+  <si>
+    <t>Scottish Gaelic</t>
+  </si>
+  <si>
+    <t>Commuovere</t>
+  </si>
+  <si>
+    <t>An Italian term for the feeling of being moved to tears by a story, a gesture, or an experience. It's a warm, heartfelt emotional response, often mixed with a sense of tenderness and empathy.</t>
+  </si>
+  <si>
+    <t>Dadirri</t>
+  </si>
+  <si>
+    <t>An Indigenous Australian term from the Ngan'gikurunggurr and Ngen'giwumirri languages, Dadirri is a deep, spiritual act of reflective and respectful listening. It involves a quiet, still awareness and waiting, fostering a connection to the land and community.</t>
+  </si>
+  <si>
+    <t>Desenrascanço</t>
+  </si>
+  <si>
+    <t>A Portuguese concept that means 'to disentangle' or to resourcefully find a solution to a problem with no apparent tools or resources. It embodies the emotional satisfaction and pride of improvising a clever, last-minute fix out of a difficult situation.</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Dor</t>
+  </si>
+  <si>
+    <t>Dor is a Romanian word that describes the profound and bittersweet feeling of longing for someone or something that is absent or out of reach. It combines the pain of separation with the sweetness of remembering the love for what is being missed.</t>
+  </si>
+  <si>
+    <t>Romanian</t>
+  </si>
+  <si>
+    <t>Ei viitsi</t>
+  </si>
+  <si>
+    <t>An Estonian term for the feeling of slight laziness, apathy, or a lack of energy to do anything. It's the feeling of not being bothered to start a task, whether simple or complex, embodying a state of low motivation.</t>
+  </si>
+  <si>
+    <t>Estonian</t>
+  </si>
+  <si>
+    <t>Feierabend</t>
+  </si>
+  <si>
+    <t>A German word that means 'celebration evening,' Feierabend describes the festive mood and sense of relief and freedom experienced at the end of a working day. It's the feeling of transitioning from work to personal time, ready for relaxation and leisure.</t>
+  </si>
+  <si>
+    <t>Gluggaveður</t>
+  </si>
+  <si>
+    <t>An Icelandic term that literally translates to 'window-weather.' It describes the experience of weather that looks beautiful and appealing from indoors but is actually cold, windy, or harsh to be in. It captures the feeling of coziness and the deceptive allure of the view outside.</t>
+  </si>
+  <si>
+    <t>Icelandic</t>
+  </si>
+  <si>
+    <t>Gönül</t>
+  </si>
+  <si>
+    <t>A Turkish word that refers to the heart, but not as a physical organ. Gönül is the metaphorical seat of emotions, desires, and thoughts. When you feel a deep love, a profound sadness, or a heartfelt wish, it comes from your Gönül.</t>
+  </si>
+  <si>
+    <t>Jijivisha</t>
+  </si>
+  <si>
+    <t>A Hindi word for the strong, eternal desire to live and to continue living. It represents a deep zest for life, a passion for existence, and the will to persevere through all circumstances.</t>
+  </si>
+  <si>
+    <t>Kalsarikänni</t>
+  </si>
+  <si>
+    <t>A Finnish concept that translates to 'underwear drunk,' Kalsarikänni is the feeling of contentment and relaxation that comes from drinking at home, alone, in your underwear, with no intention of going out. It celebrates solitary comfort and unwinding without social pressure.</t>
+  </si>
+  <si>
+    <t>Keyif</t>
+  </si>
+  <si>
+    <t>A Turkish term describing a state of quiet, unhurried, and blissful relaxation. It's the feeling of savoring a moment of peaceful enjoyment, free from stress and responsibility, often accompanied by a coffee or a view.</t>
+  </si>
+  <si>
+    <t>Kvell</t>
+  </si>
+  <si>
+    <t>A Yiddish word that means to feel an intense burst of pride and joy in the accomplishments of someone else, particularly a child or family member. It is a shared, celebratory feeling of profound satisfaction in another's success.</t>
+  </si>
+  <si>
+    <t>Lyadh</t>
+  </si>
+  <si>
+    <t>A Bengali word for a specific kind of intelligent, creative laziness or languor. It's not just tiredness but a state of blissful inertia and the feeling of enjoying a lack of energy, often leading to creative procrastination.</t>
+  </si>
+  <si>
+    <t>Bengali</t>
+  </si>
+  <si>
+    <t>Mbuki-mvuki</t>
+  </si>
+  <si>
+    <t>A Bantu word for the irresistible urge to shed one's clothes in order to dance with uninhibited joy. It captures a moment of pure, unrestrained celebration and physical freedom.</t>
+  </si>
+  <si>
+    <t>Bantu</t>
+  </si>
+  <si>
+    <t>Myötähäpeä</t>
+  </si>
+  <si>
+    <t>A Finnish term for the feeling of vicarious embarrassment or 'secondhand shame' one feels on behalf of someone else who is in an awkward or humiliating situation. It is a form of empathy for another's social discomfort.</t>
+  </si>
+  <si>
+    <t>Naz</t>
+  </si>
+  <si>
+    <t>A Persian and Urdu word describing a complex mix of pride, coquetry, and playful coyness that comes from knowing you are loved and cherished. It's the feeling of being able to make affectionate demands because of the security of another's affection.</t>
+  </si>
+  <si>
+    <t>Persian</t>
+  </si>
+  <si>
+    <t>Orenda</t>
+  </si>
+  <si>
+    <t>A word from the Huron (Wyandot) people, Orenda refers to the spiritual power and life force inherent in all people and things, which empowers them to affect the world. It is the feeling of the human will's power to create change in the face of fate or powerful forces.</t>
+  </si>
+  <si>
+    <t>Huron (Wyandot)</t>
+  </si>
+  <si>
+    <t>Pole</t>
+  </si>
+  <si>
+    <t>A Swahili expression of empathy and commiseration used to say 'I'm sorry for your misfortune.' It is a simple, gentle word offered to acknowledge someone's pain, struggle, or bad luck, conveying a sense of shared humanity and comfort.</t>
+  </si>
+  <si>
+    <t>Swahili</t>
+  </si>
+  <si>
+    <t>Shemomechama</t>
+  </si>
+  <si>
+    <t>A Georgian word that means 'I accidentally ate the whole thing.' It describes the feeling of eating past the point of being full simply because the food is so delicious, capturing a moment of unintentional gluttony driven by pure enjoyment.</t>
+  </si>
+  <si>
+    <t>Georgian</t>
+  </si>
+  <si>
+    <t>Sobremesa</t>
+  </si>
+  <si>
+    <t>A Spanish term for the time spent relaxing and enjoying conversation at the table after a meal is finished. It's the feeling of leisurely connection and shared stories with friends or family that extends long after the food is gone.</t>
+  </si>
+  <si>
+    <t>Tampo</t>
+  </si>
+  <si>
+    <t>A Tagalog word describing a specific form of sulking or withdrawing affection when one's feelings have been hurt by a loved one. It is not outright anger but a quiet, resentful sadness, with the expectation that the other person will coax them out of it with affection.</t>
+  </si>
+  <si>
+    <t>Tartle</t>
+  </si>
+  <si>
+    <t>A Scottish word for the moment of hesitation that occurs when you are introducing someone and have suddenly forgotten their name. It captures that specific, awkward pause of a mental blank.</t>
+  </si>
+  <si>
+    <t>Scottish</t>
+  </si>
+  <si>
+    <t>Taarradhin</t>
+  </si>
+  <si>
+    <t>An Arabic word for a happy compromise or a positive reconciliation where everyone wins. It describes the feeling of satisfaction that comes from resolving a conflict in a way that avoids losing face for all parties involved.</t>
+  </si>
+  <si>
+    <t>Ya'aburnee</t>
+  </si>
+  <si>
+    <t>An Arabic word that literally means 'you bury me.' It is a profound, tragic declaration of one's hope to die before a loved one because of how unbearable it would be to live without them.</t>
+  </si>
+  <si>
+    <t>Boketto</t>
+  </si>
+  <si>
+    <t>A Japanese term for the act of gazing vacantly into the distance without thinking about anything in particular. It represents a peaceful, meditative state of being empty-minded and receptive to the world without active thought.</t>
+  </si>
+  <si>
+    <t>Cafuné</t>
+  </si>
+  <si>
+    <t>A Brazilian Portuguese word for the tender and affectionate act of running one's fingers through someone's hair. The word also encompasses the feeling of comfort, intimacy, and care that this gesture evokes in both the giver and the receiver.</t>
+  </si>
+  <si>
+    <t>Brazilian Portuguese</t>
+  </si>
+  <si>
+    <t>Duibheagán</t>
+  </si>
+  <si>
+    <t>An Irish Gaelic word that describes a profound sense of dark, abyss-like despair or overwhelming loneliness. It conveys a feeling of being lost in a deep, dark place with no hope of escape.</t>
+  </si>
+  <si>
+    <t>Irish Gaelic</t>
+  </si>
+  <si>
+    <t>Fanaa</t>
+  </si>
+  <si>
+    <t>An Arabic and Urdu term from Sufi mysticism that describes the 'annihilation' or 'destruction' of the self. It is the spiritual state of losing one's ego and individual identity to merge with a higher reality or the divine, resulting in a profound sense of unity and transcendence.</t>
+  </si>
+  <si>
+    <t>Urdu/Arabic</t>
+  </si>
+  <si>
+    <t>Gemes</t>
+  </si>
+  <si>
+    <t>An Indonesian word for the overwhelming and often uncontrollable urge to squeeze or pinch something that is unbearably cute, such as a baby's cheeks or a fluffy animal. It's a complex feeling where intense affection manifests as a playful, physical expression.</t>
+  </si>
+  <si>
+    <t>Gökotta</t>
+  </si>
+  <si>
+    <t>A Swedish term that means 'early-morning cuckoo.' It refers to the specific act of waking up early to go outside and hear the first birds of spring sing. The word embodies the serene, peaceful joy of connecting with nature at the dawn of a new season.</t>
+  </si>
+  <si>
+    <t>Hiányérzet</t>
+  </si>
+  <si>
+    <t>A Hungarian word for the feeling of missing something or someone. It's a distinct sense of absence or incompleteness, often felt when you can't quite identify what is lacking, creating a feeling of vague but persistent longing.</t>
+  </si>
+  <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
+    <t>Jeong (정)</t>
+  </si>
+  <si>
+    <t>A fundamental Korean concept describing a deep and binding feeling of connection, loyalty, and attachment that develops over time. It can be felt for people, places, or even objects, and combines the warmth of friendship, the bond of family, and a sense of shared history.</t>
+  </si>
+  <si>
+    <t>Kaamos</t>
+  </si>
+  <si>
+    <t>A Finnish word for the polar night, the period in winter when the sun does not rise above the horizon. It also describes the specific feeling of gloom, lethargy, and melancholy that many people experience during this dark, sunless time.</t>
+  </si>
+  <si>
+    <t>Nallik</t>
+  </si>
+  <si>
+    <t>An Inuit term for the emotion of deep love, compassion, and protective care. It is an action-oriented love, particularly the kind a parent feels for a child, that involves nurturing, protecting, and providing for someone's well-being.</t>
+  </si>
+  <si>
+    <t>Ngingit</t>
+  </si>
+  <si>
+    <t>A Tagalog word for the physical expression of baring one's teeth or gritting them in a moment of intense, suppressed emotion. It can be triggered by extreme anger, frustration, physical exertion, or even overwhelming cuteness.</t>
+  </si>
+  <si>
+    <t>Razljubit (разлюбить)</t>
+  </si>
+  <si>
+    <t>A Russian word for the specific, often painful and sad, experience of falling out of love. It describes the moment or process when feelings of love for someone have ceased to exist, leaving behind a sense of loss or finality.</t>
+  </si>
+  <si>
+    <t>Rasāsvāda</t>
+  </si>
+  <si>
+    <t>A Sanskrit term for the appreciation of the emotional 'flavor' or essence of an aesthetic experience, such as art, music, or poetry. It is the act of savoring a powerful emotion as a spectator, enjoying the feeling itself as a form of art.</t>
+  </si>
+  <si>
+    <t>SananKunya</t>
+  </si>
+  <si>
+    <t>A Maninka term for a 'joking relationship' between different clans. It allows members to ritually insult and tease one another without offense, fostering a unique feeling of community, release, and deep connection through shared humor and tradition.</t>
+  </si>
+  <si>
+    <t>Maninka</t>
+  </si>
+  <si>
+    <t>Stesk</t>
+  </si>
+  <si>
+    <t>A Czech word that describes a deep, sorrowful longing for something that one has lost and can never have again. It is a state of melancholic pining for the past, tinged with the impossibility of its return, creating a blend of grief and yearning.</t>
+  </si>
+  <si>
+    <t>Trepverter (טרעפּווערטער)</t>
+  </si>
+  <si>
+    <t>A Yiddish term for a witty comeback or clever remark that you only think of after the moment to use it has passed. The word also encompasses the specific feeling of frustration and regret that comes with this delayed wit.</t>
+  </si>
+  <si>
+    <t>Utepils</t>
+  </si>
+  <si>
+    <t>A Norwegian word for the act of sitting outside on a sunny day to enjoy the first beer of the season. It embodies the specific and widespread joy of this simple pleasure, signaling the end of a long winter and the arrival of warmer weather.</t>
+  </si>
+  <si>
+    <t>Voorpret</t>
+  </si>
+  <si>
+    <t>A Dutch word that translates to 'pre-fun.' It is the distinct feeling of joyful anticipation and excitement that one experiences in the time leading up to an event. It's the pleasure of looking forward to something good.</t>
+  </si>
+  <si>
+    <t>Xìngfú (幸福)</t>
+  </si>
+  <si>
+    <t>A Mandarin Chinese term often translated as 'happiness,' but more specifically refers to a deep, stable, and lasting sense of well-being and contentment. It is not a fleeting joy, but a profound feeling that comes from having a prosperous, meaningful life with strong relationships.</t>
+  </si>
+  <si>
+    <t>Mandarin Chinese</t>
+  </si>
+  <si>
+    <t>Zenosyne</t>
+  </si>
+  <si>
+    <t>A neologism describing the feeling that time seems to be moving faster and faster as one gets older. It captures the anxiety and melancholy associated with the perception of life accelerating and slipping away.</t>
+  </si>
+  <si>
+    <t>Aki</t>
+  </si>
+  <si>
+    <t>An oath or vow in Swahili that carries a deep emotional weight of commitment and truthfulness. The feeling associated with invoking aki is one of profound seriousness and binding oneself to a promise, often before the community or a higher power.</t>
+  </si>
+  <si>
+    <t>Buồn</t>
+  </si>
+  <si>
+    <t>Often translated as 'sadness' from Vietnamese, buồn encompasses a broader, more contemplative and gentle melancholy. It can be a quiet, lingering sadness without a specific, immediate cause, often mixed with a sense of longing or nostalgia.</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>Craic</t>
+  </si>
+  <si>
+    <t>An Irish Gaelic term for the unique atmosphere of fun, enjoyment, and lively conversation. It's the feeling of being in a place with great energy, good humor, and entertaining company, representing a high-spirited and convivial social experience.</t>
+  </si>
+  <si>
+    <t>Cwtch</t>
+  </si>
+  <si>
+    <t>A Welsh word that means more than just a 'hug.' It describes the feeling of creating a safe, warm, and loving space with another person. It's an affectionate embrace that offers a profound sense of security and home.</t>
+  </si>
+  <si>
+    <t>Estrenar</t>
+  </si>
+  <si>
+    <t>A Spanish word for the specific feeling of joy and excitement that comes from wearing or using something for the very first time. It captures the novelty and pleasure of a new beginning associated with a new object.</t>
+  </si>
+  <si>
+    <t>Fihavanana</t>
+  </si>
+  <si>
+    <t>A core Malagasy cultural value that describes the feeling of kinship, cooperation, and positive relationships within a community. It emphasizes maintaining harmony and goodwill, creating a sense of collective well-being and mutual respect.</t>
+  </si>
+  <si>
+    <t>Malagasy</t>
+  </si>
+  <si>
+    <t>Gham (غم)</t>
+  </si>
+  <si>
+    <t>A Farsi/Persian term for a deep, pervasive sorrow or grief that is often seen as a noble and profound aspect of the human experience. It is not something to be simply overcome, but a contemplative state that can lead to greater wisdom and poetic insight.</t>
+  </si>
+  <si>
+    <t>Farsi</t>
+  </si>
+  <si>
+    <t>Hózhó</t>
+  </si>
+  <si>
+    <t>A central Navajo (Diné) concept that encompasses the feeling and state of being in balance, harmony, beauty, and health. It is the ultimate goal of life to walk in hózhó, which means being in a state of positive connection with oneself, the community, nature, and the cosmos.</t>
+  </si>
+  <si>
+    <t>Navajo</t>
+  </si>
+  <si>
+    <t>Ilgesys</t>
+  </si>
+  <si>
+    <t>A Lithuanian word for a profound sense of longing and nostalgia, often for something that is difficult to articulate. It's a deep, soul-level yearning that can feel both sad and beautiful, a wistfulness for a person, place, or feeling that is out of reach.</t>
+  </si>
+  <si>
+    <t>Lithuanian</t>
+  </si>
+  <si>
+    <t>Jai yen (ใจเย็น)</t>
+  </si>
+  <si>
+    <t>Literally 'cool heart' in Thai, this describes the cultural ideal and feeling of remaining calm, poised, and emotionally detached in the face of conflict or stress. It's a state of peaceful composure and avoiding confrontation.</t>
+  </si>
+  <si>
+    <t>Karot (Կարոտ)</t>
+  </si>
+  <si>
+    <t>An Armenian word for a deep, often painful feeling of longing or nostalgia for someone or something that is absent, particularly a lost homeland or a loved one who is far away. It carries a heavier weight than simple missing and is central to the Armenian cultural identity.</t>
+  </si>
+  <si>
+    <t>Armenian</t>
+  </si>
+  <si>
+    <t>Küme mongen</t>
+  </si>
+  <si>
+    <t>A Mapudungun (Mapuche) term for 'good living.' It's the holistic feeling of living a balanced and reciprocal life in harmony with one's community, the natural environment, and the spiritual world, representing a state of complete and righteous contentment.</t>
+  </si>
+  <si>
+    <t>Mapudungun</t>
+  </si>
+  <si>
+    <t>Manja</t>
+  </si>
+  <si>
+    <t>A Malay word for the act of putting on a childlike, pampered, or clingy attitude to seek affection and attention from a loved one. The feeling is one of wanting to be indulged and cared for in a playful manner.</t>
+  </si>
+  <si>
+    <t>Merak</t>
+  </si>
+  <si>
+    <t>A Serbian/Bosnian/Croatian word for a feeling of profound bliss and connection to the universe that comes from simple pleasures, like spending time with friends or listening to good music. It's a sense of contentment so deep it's almost a spiritual experience.</t>
+  </si>
+  <si>
+    <t>Serbian</t>
+  </si>
+  <si>
+    <t>Pono</t>
+  </si>
+  <si>
+    <t>A Hawaiian concept describing a state of being in perfect alignment and harmony with oneself, others, the land, and the divine. It's the feeling of righteousness, balance, and doing what is morally right, leading to a sense of inner peace and strength.</t>
+  </si>
+  <si>
+    <t>Hawaiian</t>
+  </si>
+  <si>
+    <t>Shenpa</t>
+  </si>
+  <si>
+    <t>A Tibetan word for the feeling of being 'hooked' or triggered into a familiar, destructive cycle of thought and action. It's the tightening sensation that leads to habitual negative patterns like anger or craving. Recognizing shenpa is the first step to unhooking from it.</t>
+  </si>
+  <si>
+    <t>Tibetan</t>
+  </si>
+  <si>
+    <t>Shpilkes (שפּילקעס)</t>
+  </si>
+  <si>
+    <t>A Yiddish term for a feeling of nervous, restless energy or 'pins and needles.' It's the inability to sit still, often due to anxiety, impatience, or great anticipation for an upcoming event.</t>
+  </si>
+  <si>
+    <t>Sumak Kawsay</t>
+  </si>
+  <si>
+    <t>A Kichwa (Ecuador) term for 'good living.' It's the emotional and philosophical state of achieving a harmonious life, not based on material wealth, but on community, solidarity, and a deep, respectful connection with nature (Pachamama).</t>
+  </si>
+  <si>
+    <t>Kichwa</t>
+  </si>
+  <si>
+    <t>Teranga</t>
+  </si>
+  <si>
+    <t>A Wolof (Senegal/Gambia) word for a spirit of warmth, generosity, and sharing that creates a feeling of welcome and belonging for a guest. It's the emotional core of making someone feel like a part of the community, regardless of their origin.</t>
+  </si>
+  <si>
+    <t>Wolof</t>
+  </si>
+  <si>
+    <t>Tizita (ትዝታ)</t>
+  </si>
+  <si>
+    <t>An Amharic (Ethiopian) word for a bittersweet feeling of nostalgia and longing for the past. It is often expressed through a specific genre of music and reflects a deep, melancholic remembrance of sweet, bygone memories.</t>
+  </si>
+  <si>
+    <t>Amharic</t>
+  </si>
+  <si>
+    <t>Arbejdsglæde</t>
+  </si>
+  <si>
+    <t>A Danish word that translates to 'work-joy.' It describes the specific feeling of happiness, satisfaction, and fulfillment that comes from one's job. It's the sense of thriving in the workplace and finding pleasure and meaning in the work you do.</t>
+  </si>
+  <si>
+    <t>Besa</t>
+  </si>
+  <si>
+    <t>An Albanian cultural concept that represents a solemn oath or a promise that is a matter of unshakable honor. The feeling associated with besa is one of absolute trust, reliability, and the profound moral duty to keep one's word, even at great cost.</t>
+  </si>
+  <si>
+    <t>Albanian</t>
+  </si>
+  <si>
+    <t>Fa'aaloalo</t>
+  </si>
+  <si>
+    <t>A Samoan word for the feeling and practice of deep, active respect, particularly towards elders, guests, and those with authority. It is a foundational emotion in Samoan culture that guides social interactions and maintains harmony and order.</t>
+  </si>
+  <si>
+    <t>Samoan</t>
+  </si>
+  <si>
+    <t>Gaget</t>
+  </si>
+  <si>
+    <t>An Ilocano (Philippines) term for the feeling of diligence, industriousness, and earnestness in one's work. It embodies the positive emotion and satisfaction derived from being hardworking and persevering through a task.</t>
+  </si>
+  <si>
+    <t>Ilocano</t>
+  </si>
+  <si>
+    <t>Gimingaw</t>
+  </si>
+  <si>
+    <t>A Cebuano (Philippines) word for a deep and melancholic feeling of longing or homesickness for a person, place, or time. It's a quiet, intense sadness that comes from missing something or someone dearly.</t>
+  </si>
+  <si>
+    <t>Cebuano</t>
+  </si>
+  <si>
+    <t>Ìbà</t>
+  </si>
+  <si>
+    <t>A Yoruba word and action that signifies deep respect and homage, often paid to elders, deities, or ancestors. The feeling is one of profound reverence and acknowledgment of another's power, wisdom, or seniority.</t>
+  </si>
+  <si>
+    <t>Yoruba</t>
+  </si>
+  <si>
+    <t>Kalon-kadour</t>
+  </si>
+  <si>
+    <t>A Breton word literally meaning 'heart of a warrior.' It describes a feeling of profound inner strength, resilience, and courage in the face of adversity. It is the emotional fortitude to endure hardship without giving up.</t>
+  </si>
+  <si>
+    <t>Breton</t>
+  </si>
+  <si>
+    <t>Oja</t>
+  </si>
+  <si>
+    <t>An Igbo word for the disorienting feeling of being mentally absent or having 'missed out' on something important that just happened. It's the sense of being out of the loop or not present in the moment.</t>
+  </si>
+  <si>
+    <t>Igbo</t>
+  </si>
+  <si>
+    <t>Oodal (ஊடல்)</t>
+  </si>
+  <si>
+    <t>A Tamil word for a specific type of lover's quarrel or sulk. It is a feigned, temporary anger or coolness shown to a loved one with the implicit understanding that they will coax you out of it, thereby reaffirming the relationship's strength.</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>Pytumby</t>
+  </si>
+  <si>
+    <t>A Guaraní word for the feeling associated with the transition from day to night. It captures the specific, often melancholic and peaceful, atmosphere of dusk or twilight.</t>
+  </si>
+  <si>
+    <t>Guaraní</t>
+  </si>
+  <si>
+    <t>Sbay (สบาย)</t>
+  </si>
+  <si>
+    <t>A Thai, Lao, and Khmer word that describes a state of being comfortable, easy, and content. The feeling of sbay is one of physical and emotional well-being, of being relaxed and at ease with oneself and one's surroundings.</t>
+  </si>
+  <si>
+    <t>Thai/Lao/Khmer</t>
+  </si>
+  <si>
+    <t>Sevdah</t>
+  </si>
+  <si>
+    <t>A Bosnian word for a state of intense, melancholic longing for a person or place one loves but may never be with. It is a bittersweet and passionate yearning, often associated with unrequited love and a central theme in traditional Sevdalinka music.</t>
+  </si>
+  <si>
+    <t>Bosnian</t>
+  </si>
+  <si>
+    <t>Sirdsdegsme</t>
+  </si>
+  <si>
+    <t>A Latvian word that translates to 'heart-burning.' It describes a feeling of intense, all-consuming passion, zeal, or fervor for a cause, activity, or person. It's the emotion of being ardently committed and enthusiastic.</t>
+  </si>
+  <si>
+    <t>Latvian</t>
+  </si>
+  <si>
+    <t>Smútok</t>
+  </si>
+  <si>
+    <t>A Slovak word for a deep, lingering, and often contemplative sadness or sorrow. It is a more profound and reflective state than simple unhappiness, often carrying a sense of nostalgia or grief.</t>
+  </si>
+  <si>
+    <t>Slovak</t>
+  </si>
+  <si>
+    <t>Tayri</t>
+  </si>
+  <si>
+    <t>A Berber (Tamazight) word for love, but specifically a deep, profound, and foundational love. It represents a powerful bond and connection, whether it be romantic, familial, or for one's people and land.</t>
+  </si>
+  <si>
+    <t>Berber</t>
+  </si>
+  <si>
+    <t>Thương</t>
+  </si>
+  <si>
+    <t>A Vietnamese word for a type of love that is compassionate, affectionate, and caring, but not necessarily romantic. It is the feeling of deep fondness and concern you have for a family member, a friend, or someone who is vulnerable.</t>
+  </si>
+  <si>
+    <t>Túha (Ту́га)</t>
+  </si>
+  <si>
+    <t>A Ukrainian word for a deep and sorrowful longing, often for one's homeland or for something unattainable. It's a heavy-hearted feeling of yearning mixed with a sense of grief and nostalgia.</t>
+  </si>
+  <si>
+    <t>Ukrainian</t>
+  </si>
+  <si>
+    <t>Ujamaa</t>
+  </si>
+  <si>
+    <t>A Swahili word that means 'familyhood.' It describes the feeling of community, cooperation, and shared responsibility. It's the emotional bond and sense of belonging that comes from knowing that people are taking care of each other as an extended family.</t>
+  </si>
+  <si>
+    <t>Vakacegu</t>
+  </si>
+  <si>
+    <t>A Fijian word that describes a feeling of peace, tranquility, and restfulness. It is the state of being free from worry and disturbance, embodying a deep sense of calm and serenity.</t>
+  </si>
+  <si>
+    <t>Fijian</t>
+  </si>
+  <si>
+    <t>Wacantognaka</t>
+  </si>
+  <si>
+    <t>A Lakota word for the feeling and practice of generosity, compassion, and hospitality. It is the emotional state of caring for and providing for others, which is considered a great virtue and a source of community strength.</t>
+  </si>
+  <si>
+    <t>Lakota</t>
+  </si>
+  <si>
+    <t>Abhimaan (अभिमान)</t>
+  </si>
+  <si>
+    <t>A Marathi term for a specific kind of pride that is deeply intertwined with love and a sense of belonging. It's the feeling of being hurt or offended by the actions of a loved one, leading to a temporary, sulking withdrawal with the expectation that the other person will show they care.</t>
+  </si>
+  <si>
+    <t>Marathi</t>
+  </si>
+  <si>
+    <t>Ailyak (Айляк)</t>
+  </si>
+  <si>
+    <t>A Bulgarian cultural concept and feeling of being completely unhurried, relaxed, and untroubled by everyday worries. It is the art of approaching life in a calm, leisurely manner, savoring the moment without any sense of pressure or stress.</t>
+  </si>
+  <si>
+    <t>Bulgarian</t>
+  </si>
+  <si>
+    <t>Anade (အားနာတယ်)</t>
+  </si>
+  <si>
+    <t>A Burmese word for the feeling of reluctance to accept help or impose on someone for fear of inconveniencing them. It is a complex emotion rooted in deep consideration for others, sometimes leading to personal disadvantage to avoid being a burden.</t>
+  </si>
+  <si>
+    <t>Burmese</t>
+  </si>
+  <si>
+    <t>Ghairat (غيرت)</t>
+  </si>
+  <si>
+    <t>A Pashto word for a powerful sense of personal and collective honor, integrity, and self-respect. It is an intense emotion that compels one to defend their family, community, and reputation, and to act with courage and moral uprightness.</t>
+  </si>
+  <si>
+    <t>Pashto</t>
+  </si>
+  <si>
+    <t>Gidimagizi</t>
+  </si>
+  <si>
+    <t>An Anishinaabemowin (Ojibwe) word describing the feeling of being pitiful, poor, or unworthy. While seemingly negative, expressing this emotion can be a humble way to foster empathy and encourage generosity and support from the community.</t>
+  </si>
+  <si>
+    <t>Anishinaabemowin</t>
+  </si>
+  <si>
+    <t>Hiya</t>
+  </si>
+  <si>
+    <t>A core Filipino psychological concept and emotion often translated as 'shame' or 'embarrassment.' However, it is more complex, encompassing a sense of social propriety, respect for authority, and a deep concern for how one is perceived by others.</t>
+  </si>
+  <si>
+    <t>Jivhala (जिव्हाळा)</t>
+  </si>
+  <si>
+    <t>A Marathi word for a feeling of deep, heartfelt affection, fondness, and intimacy. It describes the warm, tender connection one feels for close friends, family, or anyone held dear, signifying a strong emotional bond.</t>
+  </si>
+  <si>
+    <t>Kaukura</t>
+  </si>
+  <si>
+    <t>A Māori term for a feeling of deep contentment, satisfaction, and well-being. It is a state of being at peace with oneself and one's surroundings, often achieved after a shared meal or a fulfilling community activity.</t>
+  </si>
+  <si>
+    <t>Kunnen Kashi</t>
+  </si>
+  <si>
+    <t>A Hausa phrase literally meaning 'ear of the ground.' It describes a feeling of suspicion or a premonition that something is wrong or about to happen. It's an intuitive sense of foreboding based on subtle, unspoken cues.</t>
+  </si>
+  <si>
+    <t>Hausa</t>
+  </si>
+  <si>
+    <t>Lekker</t>
+  </si>
+  <si>
+    <t>An Afrikaans word that goes far beyond its literal meaning of 'tasty.' It describes a general feeling of pleasure, niceness, and enjoyment. A situation, a person, a song, or a day can be 'lekker,' signifying a sense of all-around goodness and satisfaction.</t>
+  </si>
+  <si>
+    <t>Afrikaans</t>
+  </si>
+  <si>
+    <t>Nepantla</t>
+  </si>
+  <si>
+    <t>A Nahuatl (Aztec) word describing the feeling of being 'in the middle.' It refers to the emotional and spiritual state of living between two cultures or worldviews, often accompanied by a sense of disorientation, conflict, and ultimately, creative transformation.</t>
+  </si>
+  <si>
+    <t>Nahuatl</t>
+  </si>
+  <si>
+    <t>Nunchi (눈치)</t>
+  </si>
+  <si>
+    <t>A Korean concept for the subtle art and feeling of instantly grasping a social situation and understanding the thoughts and feelings of others. It is a form of emotional intelligence that allows one to navigate social dynamics with harmony and tact.</t>
+  </si>
+  <si>
+    <t>Pirith</t>
+  </si>
+  <si>
+    <t>While technically a term for protective Buddhist chants in Sri Lanka, the word also evokes the specific feeling of deep tranquility, security, and spiritual peace that comes from listening to them. It is an emotion of serene and sacred calm.</t>
+  </si>
+  <si>
+    <t>Sinhala</t>
+  </si>
+  <si>
+    <t>Pulakam (പുളകം)</t>
+  </si>
+  <si>
+    <t>A Malayalam word for the thrilling sensation of goosebumps that arise from a moment of intense joy, pride, excitement, or aesthetic bliss. It is the physical manifestation of a profound and exhilarating emotional experience.</t>
+  </si>
+  <si>
+    <t>Malayalam</t>
+  </si>
+  <si>
+    <t>Rasa</t>
+  </si>
+  <si>
+    <t>A Javanese concept that is more than just emotion; it is a form of intuitive inner feeling and spiritual perception. Rasa is the deep, wordless understanding of a situation or another person, a way of knowing that comes from the heart rather than the mind.</t>
+  </si>
+  <si>
+    <t>Javanese</t>
+  </si>
+  <si>
+    <t>A Galician word, like its Portuguese cousin, that describes a deep, melancholic longing for something or someone absent. It's a bittersweet feeling of nostalgia and yearning for a beloved past that may never return, central to Galician culture and music.</t>
+  </si>
+  <si>
+    <t>Galician</t>
+  </si>
+  <si>
+    <t>Seny</t>
+  </si>
+  <si>
+    <t>A Catalan cultural trait and feeling that embodies a form of practical wisdom, common sense, and prudence. It is the emotion of being well-grounded, sensible, and having a clear and perceptive understanding of life.</t>
+  </si>
+  <si>
+    <t>Catalan</t>
+  </si>
+  <si>
+    <t>Sólarfrí</t>
+  </si>
+  <si>
+    <t>An Icelandic word for 'sun holiday.' It describes the collective feeling of spontaneous joy and delight when workers are unexpectedly given time off to enjoy a rare, sunny day, capturing a moment of shared, celebratory freedom.</t>
+  </si>
+  <si>
+    <t>Temuulel (Тэмүүлэл)</t>
+  </si>
+  <si>
+    <t>A Mongolian word for a feeling of intense passion, aspiration, and creative drive. It is the rush of energy and inspiration that makes one strive towards a goal, whether it be artistic, intellectual, or personal.</t>
+  </si>
+  <si>
+    <t>Mongolian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2503,8 +3316,14 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF282A2E"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2514,6 +3333,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2539,7 +3370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2551,22 +3382,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="3">
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -2584,48 +3422,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2959,13 +3758,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6299021A-12BB-9548-85CA-E3645404A9C9}">
-  <dimension ref="A1:F380"/>
+  <dimension ref="A1:F486"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C467" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B472" sqref="B472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2986,123 +3785,125 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="E2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" t="s">
-        <v>683</v>
-      </c>
-      <c r="E3" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="E5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="E6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="E6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="E7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" t="s">
+        <v>473</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>443</v>
-      </c>
-      <c r="B9" t="s">
-        <v>684</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B10" t="s">
+        <v>680</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>404</v>
-      </c>
-      <c r="B11" t="s">
-        <v>685</v>
+      <c r="B11" s="1" t="s">
+        <v>772</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>165</v>
@@ -3110,340 +3911,350 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="B12" t="s">
-        <v>478</v>
+        <v>681</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="B13" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>733</v>
+        <v>388</v>
       </c>
       <c r="B14" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>371</v>
-      </c>
-      <c r="B15" t="s">
-        <v>481</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>472</v>
-      </c>
-      <c r="B16" t="s">
-        <v>482</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>751</v>
+        <v>729</v>
+      </c>
+      <c r="B17" t="s">
+        <v>476</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>266</v>
+        <v>367</v>
       </c>
       <c r="B18" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>231</v>
+        <v>468</v>
       </c>
       <c r="B19" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>258</v>
-      </c>
-      <c r="B20" t="s">
-        <v>485</v>
+        <v>65</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>747</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>399</v>
+        <v>262</v>
       </c>
       <c r="B21" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>462</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s">
-        <v>686</v>
+        <v>480</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>777</v>
+        <v>254</v>
+      </c>
+      <c r="B23" t="s">
+        <v>481</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="B24" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>458</v>
+      </c>
+      <c r="B25" t="s">
+        <v>682</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>233</v>
-      </c>
-      <c r="B26" t="s">
-        <v>687</v>
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>773</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>237</v>
+        <v>305</v>
       </c>
       <c r="B27" t="s">
-        <v>688</v>
+        <v>483</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>272</v>
-      </c>
-      <c r="B28" t="s">
-        <v>488</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s">
-        <v>489</v>
+        <v>683</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B31" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>238</v>
-      </c>
-      <c r="B33" t="s">
-        <v>690</v>
+        <v>67</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>778</v>
+        <v>232</v>
+      </c>
+      <c r="B35" t="s">
+        <v>685</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>752</v>
+        <v>235</v>
+      </c>
+      <c r="B36" t="s">
+        <v>486</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>351</v>
+        <v>234</v>
       </c>
       <c r="B37" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>753</v>
+        <v>346</v>
+      </c>
+      <c r="B38" t="s">
+        <v>487</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>243</v>
-      </c>
-      <c r="B39" t="s">
-        <v>492</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>254</v>
-      </c>
-      <c r="B40" t="s">
-        <v>493</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>970</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>971</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>754</v>
+        <v>774</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>246</v>
-      </c>
-      <c r="B42" t="s">
-        <v>494</v>
+        <v>64</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>748</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>165</v>
@@ -3451,2808 +4262,2900 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="B43" t="s">
-        <v>495</v>
+        <v>687</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>452</v>
-      </c>
-      <c r="B44" t="s">
-        <v>496</v>
+        <v>70</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>749</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>389</v>
+        <v>239</v>
       </c>
       <c r="B45" t="s">
-        <v>692</v>
+        <v>488</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>370</v>
-      </c>
-      <c r="B46" t="s">
-        <v>497</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>165</v>
+        <v>771</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="B47" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>251</v>
-      </c>
-      <c r="B48" t="s">
-        <v>693</v>
-      </c>
-      <c r="E48" t="s">
-        <v>165</v>
+        <v>30</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B49" t="s">
-        <v>766</v>
+        <v>490</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>428</v>
-      </c>
-      <c r="B50" t="s">
-        <v>499</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>972</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="B51" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>123</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>124</v>
+        <v>448</v>
+      </c>
+      <c r="B52" t="s">
+        <v>492</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="B53" t="s">
-        <v>501</v>
+        <v>688</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>262</v>
+        <v>366</v>
       </c>
       <c r="B54" t="s">
-        <v>694</v>
+        <v>493</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>385</v>
-      </c>
-      <c r="B55" t="s">
-        <v>767</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="B56" t="s">
-        <v>695</v>
+        <v>494</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="B57" t="s">
-        <v>502</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>165</v>
+        <v>689</v>
+      </c>
+      <c r="E57" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="B58" t="s">
-        <v>696</v>
+        <v>762</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>230</v>
-      </c>
-      <c r="B59" t="s">
-        <v>697</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>919</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>424</v>
       </c>
       <c r="B60" t="s">
-        <v>698</v>
+        <v>495</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="B61" t="s">
-        <v>699</v>
+        <v>496</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>414</v>
-      </c>
-      <c r="B62" t="s">
-        <v>503</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>286</v>
-      </c>
-      <c r="B63" t="s">
-        <v>504</v>
+        <v>122</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>418</v>
+        <v>351</v>
       </c>
       <c r="B64" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B65" t="s">
-        <v>506</v>
+        <v>690</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>435</v>
+        <v>381</v>
       </c>
       <c r="B66" t="s">
-        <v>507</v>
+        <v>763</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>405</v>
+        <v>265</v>
       </c>
       <c r="B67" t="s">
-        <v>508</v>
+        <v>691</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>280</v>
-      </c>
-      <c r="B68" t="s">
-        <v>509</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="B69" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>120</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>121</v>
+        <v>273</v>
+      </c>
+      <c r="B70" t="s">
+        <v>692</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>118</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>119</v>
+        <v>226</v>
+      </c>
+      <c r="B71" t="s">
+        <v>693</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>419</v>
-      </c>
-      <c r="B72" t="s">
-        <v>511</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>244</v>
+        <v>121</v>
       </c>
       <c r="B73" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="B74" t="s">
-        <v>512</v>
+        <v>695</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>325</v>
+        <v>410</v>
       </c>
       <c r="B75" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>476</v>
+        <v>282</v>
       </c>
       <c r="B76" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>343</v>
+        <v>414</v>
       </c>
       <c r="B77" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>779</v>
+        <v>244</v>
+      </c>
+      <c r="B78" t="s">
+        <v>502</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>297</v>
+        <v>431</v>
       </c>
       <c r="B79" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>298</v>
+        <v>401</v>
       </c>
       <c r="B80" t="s">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>116</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>117</v>
+        <v>276</v>
+      </c>
+      <c r="B81" t="s">
+        <v>505</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="B82" t="s">
-        <v>701</v>
+        <v>506</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>300</v>
-      </c>
-      <c r="B83" t="s">
-        <v>517</v>
+        <v>119</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>357</v>
-      </c>
-      <c r="B84" t="s">
-        <v>518</v>
+        <v>117</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>459</v>
-      </c>
-      <c r="B85" t="s">
-        <v>519</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A85" s="9" t="s">
+        <v>922</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="B86" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>466</v>
+        <v>240</v>
       </c>
       <c r="B87" t="s">
-        <v>521</v>
+        <v>696</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>420</v>
-      </c>
-      <c r="B88" t="s">
-        <v>522</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="B89" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>260</v>
+        <v>321</v>
       </c>
       <c r="B90" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>308</v>
-      </c>
-      <c r="B91" t="s">
-        <v>525</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="B92" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>449</v>
+        <v>339</v>
       </c>
       <c r="B93" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>439</v>
-      </c>
-      <c r="B94" t="s">
-        <v>528</v>
+        <v>13</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>775</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="B95" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>468</v>
+        <v>294</v>
       </c>
       <c r="B96" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>307</v>
-      </c>
-      <c r="B97" t="s">
-        <v>531</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A97" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>313</v>
-      </c>
-      <c r="B98" t="s">
-        <v>532</v>
+        <v>115</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>257</v>
+        <v>310</v>
       </c>
       <c r="B99" t="s">
-        <v>533</v>
+        <v>697</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B100" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>290</v>
+        <v>353</v>
       </c>
       <c r="B101" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="B102" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="B103" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>256</v>
+        <v>462</v>
       </c>
       <c r="B104" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>318</v>
+        <v>416</v>
       </c>
       <c r="B105" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>22</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>780</v>
+        <v>251</v>
+      </c>
+      <c r="B106" t="s">
+        <v>519</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>71</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>72</v>
+        <v>256</v>
+      </c>
+      <c r="B107" t="s">
+        <v>520</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="B108" t="s">
-        <v>702</v>
+        <v>521</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="B109" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>181</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C110" t="s">
-        <v>177</v>
-      </c>
-      <c r="E110" t="s">
-        <v>165</v>
+        <v>445</v>
+      </c>
+      <c r="B110" t="s">
+        <v>523</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>322</v>
+        <v>435</v>
       </c>
       <c r="B111" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="B112" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>291</v>
+        <v>464</v>
       </c>
       <c r="B113" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>427</v>
+        <v>303</v>
       </c>
       <c r="B114" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="B115" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>305</v>
+        <v>253</v>
       </c>
       <c r="B116" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>140</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>141</v>
+        <v>295</v>
+      </c>
+      <c r="B117" t="s">
+        <v>530</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>10</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>741</v>
+        <v>286</v>
+      </c>
+      <c r="B118" t="s">
+        <v>531</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>328</v>
+        <v>411</v>
       </c>
       <c r="B119" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>114</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>115</v>
+        <v>428</v>
+      </c>
+      <c r="B120" t="s">
+        <v>533</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>451</v>
-      </c>
-      <c r="B121" t="s">
-        <v>549</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A121" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
       <c r="B122" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>183</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C123" t="s">
-        <v>177</v>
-      </c>
-      <c r="E123" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="B123" t="s">
+        <v>535</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>330</v>
-      </c>
-      <c r="B124" t="s">
-        <v>703</v>
+        <v>22</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>776</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>73</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A125" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>287</v>
-      </c>
-      <c r="B126" t="s">
-        <v>551</v>
+        <v>71</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B127" t="s">
-        <v>552</v>
+        <v>698</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>75</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>149</v>
+        <v>409</v>
+      </c>
+      <c r="B128" t="s">
+        <v>537</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>51</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A129" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="E130" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>19</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>782</v>
+        <v>318</v>
+      </c>
+      <c r="B131" t="s">
+        <v>538</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>21</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>783</v>
+        <v>278</v>
+      </c>
+      <c r="B132" t="s">
+        <v>539</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>744</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="B133" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>263</v>
+        <v>423</v>
       </c>
       <c r="B134" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>76</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>784</v>
+        <v>322</v>
+      </c>
+      <c r="B135" t="s">
+        <v>542</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>444</v>
+        <v>301</v>
       </c>
       <c r="B136" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="E136" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A137" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E138" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>33</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>12</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>284</v>
-      </c>
-      <c r="B139" t="s">
-        <v>768</v>
+        <v>10</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>737</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="B140" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>366</v>
+        <v>447</v>
       </c>
       <c r="B142" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>50</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>786</v>
+        <v>433</v>
+      </c>
+      <c r="B143" t="s">
+        <v>546</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>52</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="E144" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A145" s="10" t="s">
+        <v>975</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>976</v>
+      </c>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>465</v>
+        <v>326</v>
       </c>
       <c r="B146" t="s">
-        <v>558</v>
+        <v>699</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>165</v>
+        <v>730</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>7</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A147" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>788</v>
+        <v>74</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="B149" t="s">
-        <v>704</v>
+        <v>547</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="B150" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>113</v>
-      </c>
-      <c r="B151" t="s">
-        <v>560</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A151" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>340</v>
+        <v>75</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>789</v>
+        <v>148</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>292</v>
-      </c>
-      <c r="B153" t="s">
-        <v>561</v>
+        <v>51</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>751</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>339</v>
-      </c>
-      <c r="B154" t="s">
-        <v>562</v>
+        <v>47</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>777</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>79</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E155" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A155" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>344</v>
-      </c>
-      <c r="B156" t="s">
-        <v>770</v>
+        <v>19</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>778</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>271</v>
-      </c>
-      <c r="B157" t="s">
-        <v>705</v>
+        <v>21</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>779</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>2</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="E158" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+      <c r="B158" t="s">
+        <v>549</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>112</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="E159" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="B159" t="s">
+        <v>550</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>347</v>
-      </c>
-      <c r="B160" t="s">
-        <v>563</v>
+        <v>76</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>780</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>278</v>
+        <v>440</v>
       </c>
       <c r="B161" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>279</v>
-      </c>
-      <c r="B162" t="s">
-        <v>771</v>
+        <v>33</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>781</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>349</v>
-      </c>
-      <c r="B163" t="s">
-        <v>706</v>
+        <v>12</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>752</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="B164" t="s">
-        <v>565</v>
+        <v>764</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>17</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>758</v>
+        <v>269</v>
+      </c>
+      <c r="B165" t="s">
+        <v>552</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>274</v>
-      </c>
-      <c r="B166" t="s">
-        <v>566</v>
+        <v>77</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>110</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>111</v>
+        <v>362</v>
+      </c>
+      <c r="B167" t="s">
+        <v>553</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>108</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A168" s="10" t="s">
+        <v>978</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>979</v>
+      </c>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>276</v>
-      </c>
-      <c r="B169" t="s">
-        <v>567</v>
+        <v>50</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>782</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>228</v>
-      </c>
-      <c r="B170" t="s">
-        <v>707</v>
+        <v>78</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>356</v>
-      </c>
-      <c r="B171" t="s">
-        <v>568</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A171" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>746</v>
+        <v>177</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>358</v>
+        <v>461</v>
       </c>
       <c r="B173" t="s">
-        <v>708</v>
+        <v>554</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>732</v>
+        <v>163</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>747</v>
+        <v>210</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>81</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="E175" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>359</v>
-      </c>
-      <c r="B176" t="s">
-        <v>736</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>6</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A175" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A176" s="9" t="s">
+        <v>931</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A177" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>760</v>
+        <v>784</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>361</v>
-      </c>
-      <c r="B179" t="s">
-        <v>772</v>
-      </c>
-      <c r="E179" s="5" t="s">
-        <v>165</v>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A179" s="10" t="s">
+        <v>981</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>982</v>
+      </c>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="B180" t="s">
-        <v>569</v>
+        <v>700</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>337</v>
+        <v>412</v>
       </c>
       <c r="B181" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>332</v>
-      </c>
-      <c r="B182" t="s">
-        <v>571</v>
-      </c>
-      <c r="E182" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>265</v>
-      </c>
-      <c r="B183" t="s">
-        <v>572</v>
-      </c>
-      <c r="E183" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>327</v>
-      </c>
-      <c r="B184" t="s">
-        <v>573</v>
-      </c>
-      <c r="E184" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A182" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="C182" s="9"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="9" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A183" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="C183" s="9"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A184" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="C184" s="9"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="9" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>434</v>
+        <v>112</v>
       </c>
       <c r="B185" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>467</v>
-      </c>
-      <c r="B186" t="s">
-        <v>575</v>
+        <v>336</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>785</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>105</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E187" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+      <c r="B187" t="s">
+        <v>557</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>107</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="E188" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+      <c r="B188" t="s">
+        <v>558</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>455</v>
-      </c>
-      <c r="B189" t="s">
-        <v>576</v>
-      </c>
-      <c r="E189" s="5" t="s">
-        <v>165</v>
+        <v>79</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E189" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="B190" t="s">
-        <v>577</v>
+        <v>766</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>165</v>
+        <v>731</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>445</v>
+        <v>267</v>
       </c>
       <c r="B191" t="s">
-        <v>578</v>
+        <v>701</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>304</v>
-      </c>
-      <c r="B192" t="s">
-        <v>579</v>
-      </c>
-      <c r="E192" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E192" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>436</v>
-      </c>
-      <c r="B193" t="s">
-        <v>580</v>
-      </c>
-      <c r="E193" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E193" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>250</v>
+        <v>343</v>
       </c>
       <c r="B194" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>138</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E195" t="s">
-        <v>161</v>
+        <v>274</v>
+      </c>
+      <c r="B195" t="s">
+        <v>560</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>446</v>
+        <v>275</v>
       </c>
       <c r="B196" t="s">
-        <v>582</v>
+        <v>767</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>34</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="E197" t="s">
-        <v>162</v>
+        <v>345</v>
+      </c>
+      <c r="B197" t="s">
+        <v>702</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="B198" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>42</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="E199" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A199" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="C199" s="9"/>
+      <c r="D199" s="9"/>
+      <c r="E199" s="9" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>104</v>
-      </c>
-      <c r="B200" t="s">
-        <v>709</v>
+        <v>17</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>754</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>137</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E201" t="s">
-        <v>164</v>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A201" s="10" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="10" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="B202" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E203" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="E204" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>136</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E205" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>27</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E206" t="s">
-        <v>170</v>
+        <v>272</v>
+      </c>
+      <c r="B205" t="s">
+        <v>563</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A206" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="C206" s="9"/>
+      <c r="D206" s="9"/>
+      <c r="E206" s="9" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>475</v>
+        <v>224</v>
       </c>
       <c r="B207" t="s">
-        <v>585</v>
+        <v>703</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>20</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E208" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+      <c r="B208" t="s">
+        <v>564</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="E209" t="s">
-        <v>160</v>
+        <v>788</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>241</v>
+        <v>354</v>
       </c>
       <c r="B210" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="E211" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>474</v>
-      </c>
-      <c r="B212" t="s">
-        <v>586</v>
-      </c>
-      <c r="E212" s="5" t="s">
-        <v>165</v>
+        <v>755</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A212" s="10" t="s">
+        <v>984</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>985</v>
+      </c>
+      <c r="C212" s="10"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="10" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E213" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>789</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>135</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E214" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+      <c r="B214" t="s">
+        <v>732</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E215" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+        <v>790</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>345</v>
-      </c>
-      <c r="B216" t="s">
-        <v>587</v>
+        <v>23</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>756</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>352</v>
-      </c>
-      <c r="B217" t="s">
-        <v>588</v>
-      </c>
-      <c r="E217" s="5" t="s">
-        <v>165</v>
+        <v>744</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A217" s="9" t="s">
+        <v>937</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="C217" s="9"/>
+      <c r="D217" s="9"/>
+      <c r="E217" s="9" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="B218" t="s">
-        <v>589</v>
+        <v>768</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B219" t="s">
-        <v>710</v>
+        <v>565</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>426</v>
+        <v>333</v>
       </c>
       <c r="B220" t="s">
-        <v>591</v>
+        <v>566</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="B221" t="s">
-        <v>711</v>
+        <v>567</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>376</v>
+        <v>261</v>
       </c>
       <c r="B222" t="s">
-        <v>713</v>
+        <v>568</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>41</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="E223" t="s">
-        <v>187</v>
+        <v>323</v>
+      </c>
+      <c r="B223" t="s">
+        <v>569</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>377</v>
+        <v>430</v>
       </c>
       <c r="B224" t="s">
-        <v>714</v>
+        <v>570</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>380</v>
+        <v>463</v>
       </c>
       <c r="B225" t="s">
-        <v>715</v>
+        <v>571</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>346</v>
-      </c>
-      <c r="B226" t="s">
-        <v>716</v>
-      </c>
-      <c r="E226" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E226" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="E227" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>60</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E228" t="s">
-        <v>167</v>
+        <v>451</v>
+      </c>
+      <c r="B228" t="s">
+        <v>572</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="B229" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>268</v>
+        <v>441</v>
       </c>
       <c r="B230" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>378</v>
+        <v>300</v>
       </c>
       <c r="B231" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>295</v>
+        <v>432</v>
       </c>
       <c r="B232" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>175</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C233" t="s">
-        <v>177</v>
-      </c>
-      <c r="E233" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="B233" t="s">
+        <v>577</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>763</v>
+        <v>138</v>
       </c>
       <c r="E234" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
       <c r="B235" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>386</v>
-      </c>
-      <c r="B236" t="s">
-        <v>717</v>
-      </c>
-      <c r="E236" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A236" s="9" t="s">
+        <v>940</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="C236" s="9"/>
+      <c r="D236" s="9"/>
+      <c r="E236" s="9" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>379</v>
-      </c>
-      <c r="B237" t="s">
-        <v>597</v>
-      </c>
-      <c r="E237" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="E237" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>29</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E238" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>387</v>
-      </c>
-      <c r="B239" t="s">
-        <v>598</v>
-      </c>
-      <c r="E239" s="5" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>32</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E240" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>247</v>
-      </c>
-      <c r="B241" t="s">
-        <v>599</v>
-      </c>
-      <c r="E241" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+      <c r="B238" t="s">
+        <v>579</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A239" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="C239" s="9"/>
+      <c r="D239" s="9"/>
+      <c r="E239" s="9" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A240" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="C240" s="9"/>
+      <c r="D240" s="9"/>
+      <c r="E240" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A241" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C241" s="10"/>
+      <c r="D241" s="10"/>
+      <c r="E241" s="10" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>425</v>
-      </c>
-      <c r="B242" t="s">
-        <v>600</v>
-      </c>
-      <c r="E242" s="5" t="s">
-        <v>165</v>
+        <v>42</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="E242" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>388</v>
+        <v>103</v>
       </c>
       <c r="B243" t="s">
-        <v>773</v>
+        <v>705</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>302</v>
-      </c>
-      <c r="B244" t="s">
-        <v>601</v>
-      </c>
-      <c r="E244" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>49</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E245" t="s">
-        <v>190</v>
+        <v>136</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E244" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A245" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="C245" s="9"/>
+      <c r="D245" s="9"/>
+      <c r="E245" s="9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>98</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E246" t="s">
-        <v>174</v>
+      <c r="A246" s="10" t="s">
+        <v>987</v>
+      </c>
+      <c r="B246" s="11" t="s">
+        <v>988</v>
+      </c>
+      <c r="C246" s="10"/>
+      <c r="D246" s="10"/>
+      <c r="E246" s="10" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="B247" t="s">
-        <v>602</v>
+        <v>580</v>
       </c>
       <c r="E247" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>11</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E248" t="s">
+    <row r="248" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A248" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="C248" s="9"/>
+      <c r="D248" s="9"/>
+      <c r="E248" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A249" s="9" t="s">
+        <v>942</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="C249" s="9"/>
+      <c r="D249" s="9"/>
+      <c r="E249" s="9" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>101</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E250" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A251" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B251" s="11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C251" s="10"/>
+      <c r="D251" s="10"/>
+      <c r="E251" s="10" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>59</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="E252" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>96</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E249" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>334</v>
-      </c>
-      <c r="B250" t="s">
-        <v>603</v>
-      </c>
-      <c r="E250" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>301</v>
-      </c>
-      <c r="B251" t="s">
-        <v>718</v>
-      </c>
-      <c r="E251" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>390</v>
-      </c>
-      <c r="B252" t="s">
-        <v>604</v>
-      </c>
-      <c r="E252" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="E253" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>353</v>
-      </c>
-      <c r="B254" t="s">
-        <v>605</v>
-      </c>
-      <c r="E254" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A254" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="C254" s="9"/>
+      <c r="D254" s="9"/>
+      <c r="E254" s="9" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>249</v>
-      </c>
-      <c r="B255" t="s">
-        <v>606</v>
-      </c>
-      <c r="E255" s="5" t="s">
-        <v>165</v>
+        <v>27</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E255" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>319</v>
+        <v>471</v>
       </c>
       <c r="B256" t="s">
-        <v>719</v>
+        <v>581</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>232</v>
-      </c>
-      <c r="B257" t="s">
-        <v>720</v>
-      </c>
-      <c r="E257" s="5" t="s">
-        <v>165</v>
+        <v>20</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E257" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>94</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E258" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>259</v>
-      </c>
-      <c r="B259" t="s">
-        <v>607</v>
-      </c>
-      <c r="E259" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>37</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E260" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A258" s="9" t="s">
+        <v>945</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="C258" s="9"/>
+      <c r="D258" s="9"/>
+      <c r="E258" s="9" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A259" s="10" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B259" s="11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C259" s="10"/>
+      <c r="D259" s="10"/>
+      <c r="E259" s="10" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A260" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="C260" s="9"/>
+      <c r="D260" s="9"/>
+      <c r="E260" s="9" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>197</v>
+        <v>795</v>
       </c>
       <c r="E261" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B262" t="s">
-        <v>608</v>
+        <v>708</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>134</v>
+        <v>796</v>
       </c>
       <c r="E263" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>311</v>
+        <v>470</v>
       </c>
       <c r="B264" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>393</v>
-      </c>
-      <c r="B265" t="s">
-        <v>610</v>
-      </c>
-      <c r="E265" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A265" s="10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C265" s="10"/>
+      <c r="D265" s="10"/>
+      <c r="E265" s="10" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>368</v>
-      </c>
-      <c r="B266" t="s">
-        <v>611</v>
-      </c>
-      <c r="E266" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E266" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>394</v>
-      </c>
-      <c r="B267" t="s">
-        <v>612</v>
-      </c>
-      <c r="E267" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E267" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>438</v>
-      </c>
-      <c r="B268" t="s">
-        <v>613</v>
-      </c>
-      <c r="E268" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E268" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>39</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E269" t="s">
-        <v>165</v>
+        <v>341</v>
+      </c>
+      <c r="B269" t="s">
+        <v>583</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="B270" t="s">
-        <v>614</v>
+        <v>584</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>264</v>
+        <v>99</v>
       </c>
       <c r="B271" t="s">
-        <v>615</v>
+        <v>585</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>92</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E272" t="s">
-        <v>196</v>
+        <v>368</v>
+      </c>
+      <c r="B272" t="s">
+        <v>706</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>261</v>
+        <v>422</v>
       </c>
       <c r="B273" t="s">
-        <v>616</v>
+        <v>587</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="B274" t="s">
-        <v>617</v>
+        <v>707</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>396</v>
-      </c>
-      <c r="B275" t="s">
-        <v>618</v>
-      </c>
-      <c r="E275" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A275" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="C275" s="9"/>
+      <c r="D275" s="9"/>
+      <c r="E275" s="9" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>281</v>
+        <v>372</v>
       </c>
       <c r="B276" t="s">
-        <v>619</v>
+        <v>709</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>397</v>
-      </c>
-      <c r="B277" t="s">
-        <v>620</v>
-      </c>
-      <c r="E277" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>317</v>
-      </c>
-      <c r="B278" t="s">
-        <v>621</v>
-      </c>
-      <c r="E278" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E277" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A278" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="C278" s="9"/>
+      <c r="D278" s="9"/>
+      <c r="E278" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>58</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E279" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>400</v>
-      </c>
-      <c r="B280" t="s">
-        <v>622</v>
-      </c>
-      <c r="E280" s="5" t="s">
-        <v>165</v>
+        <v>373</v>
+      </c>
+      <c r="B279" t="s">
+        <v>710</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A280" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="C280" s="9"/>
+      <c r="D280" s="9"/>
+      <c r="E280" s="9" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>227</v>
+        <v>376</v>
       </c>
       <c r="B281" t="s">
-        <v>623</v>
+        <v>711</v>
       </c>
       <c r="E281" s="5" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>342</v>
+      </c>
+      <c r="B282" t="s">
+        <v>712</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A283" s="9" t="s">
+        <v>950</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>951</v>
+      </c>
+      <c r="C283" s="9"/>
+      <c r="D283" s="9"/>
+      <c r="E283" s="9" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>16</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E284" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>28</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E282" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
-        <v>375</v>
-      </c>
-      <c r="B283" t="s">
-        <v>721</v>
-      </c>
-      <c r="E283" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
-        <v>303</v>
-      </c>
-      <c r="B284" t="s">
-        <v>624</v>
-      </c>
-      <c r="E284" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>401</v>
-      </c>
-      <c r="B285" t="s">
-        <v>625</v>
-      </c>
-      <c r="E285" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E285" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B286" t="s">
-        <v>626</v>
+        <v>588</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>463</v>
+        <v>264</v>
       </c>
       <c r="B287" t="s">
-        <v>627</v>
+        <v>589</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>132</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E288" t="s">
-        <v>160</v>
+        <v>374</v>
+      </c>
+      <c r="B288" t="s">
+        <v>590</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>469</v>
+        <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>628</v>
+        <v>591</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>226</v>
-      </c>
-      <c r="B290" t="s">
-        <v>629</v>
-      </c>
-      <c r="E290" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E290" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>363</v>
-      </c>
-      <c r="B291" t="s">
-        <v>630</v>
-      </c>
-      <c r="E291" s="5" t="s">
-        <v>165</v>
+        <v>8</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E291" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="B292" t="s">
-        <v>631</v>
+        <v>592</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="B293" t="s">
-        <v>632</v>
+        <v>713</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="B294" t="s">
-        <v>633</v>
+        <v>593</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>802</v>
+        <v>186</v>
       </c>
       <c r="E295" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
-        <v>178</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C296" t="s">
-        <v>177</v>
-      </c>
-      <c r="E296" t="s">
-        <v>180</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A296" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C296" s="9"/>
+      <c r="D296" s="9"/>
+      <c r="E296" s="9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
@@ -6260,936 +7163,2188 @@
         <v>383</v>
       </c>
       <c r="B297" t="s">
-        <v>634</v>
+        <v>594</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
-        <v>294</v>
-      </c>
-      <c r="B298" t="s">
-        <v>635</v>
-      </c>
-      <c r="E298" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A298" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="C298" s="9"/>
+      <c r="D298" s="9"/>
+      <c r="E298" s="9" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>342</v>
-      </c>
-      <c r="B299" t="s">
-        <v>636</v>
-      </c>
-      <c r="E299" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
-        <v>131</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E300" t="s">
-        <v>165</v>
+        <v>32</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E299" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A300" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="C300" s="9"/>
+      <c r="D300" s="9"/>
+      <c r="E300" s="9" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>91</v>
+        <v>243</v>
       </c>
       <c r="B301" t="s">
-        <v>637</v>
+        <v>595</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
-        <v>4</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="E302" t="s">
-        <v>203</v>
+      <c r="A302" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C302" s="10"/>
+      <c r="D302" s="10"/>
+      <c r="E302" s="10" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>3</v>
+        <v>421</v>
       </c>
       <c r="B303" t="s">
-        <v>638</v>
+        <v>596</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
-        <v>470</v>
-      </c>
-      <c r="B304" t="s">
-        <v>639</v>
-      </c>
-      <c r="E304" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A304" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="B304" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="C304" s="9"/>
+      <c r="D304" s="9"/>
+      <c r="E304" s="9" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>44</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="E305" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+      <c r="B305" t="s">
+        <v>769</v>
+      </c>
+      <c r="E305" s="5" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>90</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E306" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="B306" t="s">
+        <v>597</v>
+      </c>
+      <c r="E306" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>447</v>
-      </c>
-      <c r="B307" t="s">
-        <v>640</v>
-      </c>
-      <c r="E307" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E307" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>333</v>
-      </c>
-      <c r="B308" t="s">
-        <v>641</v>
-      </c>
-      <c r="E308" s="5" t="s">
-        <v>165</v>
+        <v>97</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E308" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>430</v>
+        <v>263</v>
       </c>
       <c r="B309" t="s">
-        <v>642</v>
+        <v>598</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>395</v>
-      </c>
-      <c r="B310" t="s">
-        <v>643</v>
-      </c>
-      <c r="E310" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E310" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>409</v>
-      </c>
-      <c r="B311" t="s">
-        <v>644</v>
-      </c>
-      <c r="E311" s="5" t="s">
-        <v>165</v>
+        <v>95</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E311" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>473</v>
+        <v>330</v>
       </c>
       <c r="B312" t="s">
-        <v>722</v>
+        <v>599</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
-        <v>89</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E313" t="s">
-        <v>165</v>
+      <c r="A313" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B313" s="11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C313" s="10"/>
+      <c r="D313" s="10"/>
+      <c r="E313" s="10" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>406</v>
+        <v>297</v>
       </c>
       <c r="B314" t="s">
-        <v>645</v>
+        <v>714</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>153</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E315" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
-        <v>341</v>
-      </c>
-      <c r="B316" t="s">
-        <v>646</v>
-      </c>
-      <c r="E316" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+      <c r="B315" t="s">
+        <v>600</v>
+      </c>
+      <c r="E315" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A316" s="10" t="s">
+        <v>990</v>
+      </c>
+      <c r="B316" s="11" t="s">
+        <v>991</v>
+      </c>
+      <c r="C316" s="10"/>
+      <c r="D316" s="10"/>
+      <c r="E316" s="10" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>471</v>
-      </c>
-      <c r="B317" t="s">
-        <v>647</v>
-      </c>
-      <c r="E317" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
-        <v>36</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E318" t="s">
-        <v>166</v>
+        <v>38</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E317" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A318" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="B318" s="11" t="s">
+        <v>994</v>
+      </c>
+      <c r="C318" s="10"/>
+      <c r="D318" s="10"/>
+      <c r="E318" s="10" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>240</v>
+        <v>349</v>
       </c>
       <c r="B319" t="s">
-        <v>648</v>
+        <v>601</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
-        <v>348</v>
-      </c>
-      <c r="B320" t="s">
-        <v>649</v>
-      </c>
-      <c r="E320" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A320" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="B320" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="C320" s="9"/>
+      <c r="D320" s="9"/>
+      <c r="E320" s="9" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>306</v>
+        <v>245</v>
       </c>
       <c r="B321" t="s">
-        <v>650</v>
+        <v>602</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>57</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="E322" t="s">
-        <v>165</v>
+        <v>315</v>
+      </c>
+      <c r="B322" t="s">
+        <v>715</v>
+      </c>
+      <c r="E322" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>316</v>
+        <v>228</v>
       </c>
       <c r="B323" t="s">
-        <v>651</v>
+        <v>716</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>442</v>
-      </c>
-      <c r="B324" t="s">
-        <v>652</v>
-      </c>
-      <c r="E324" s="5" t="s">
-        <v>165</v>
+        <v>93</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E324" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>365</v>
+        <v>255</v>
       </c>
       <c r="B325" t="s">
-        <v>653</v>
+        <v>603</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>354</v>
-      </c>
-      <c r="B326" t="s">
-        <v>654</v>
-      </c>
-      <c r="E326" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E326" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>329</v>
-      </c>
-      <c r="B327" t="s">
-        <v>723</v>
-      </c>
-      <c r="E327" s="5" t="s">
-        <v>165</v>
+        <v>61</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E327" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>464</v>
+        <v>248</v>
       </c>
       <c r="B328" t="s">
-        <v>655</v>
+        <v>604</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>460</v>
-      </c>
-      <c r="B329" t="s">
-        <v>656</v>
-      </c>
-      <c r="E329" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E329" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>156</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E330" t="s">
-        <v>190</v>
+        <v>307</v>
+      </c>
+      <c r="B330" t="s">
+        <v>605</v>
+      </c>
+      <c r="E330" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="B331" t="s">
-        <v>657</v>
+        <v>606</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B332" t="s">
-        <v>658</v>
+        <v>607</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
-        <v>324</v>
-      </c>
-      <c r="B333" t="s">
-        <v>724</v>
-      </c>
-      <c r="E333" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A333" s="10" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B333" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C333" s="10"/>
+      <c r="D333" s="10"/>
+      <c r="E333" s="10" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>450</v>
+        <v>390</v>
       </c>
       <c r="B334" t="s">
-        <v>659</v>
+        <v>608</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B335" t="s">
-        <v>660</v>
+        <v>609</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E336" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
-        <v>411</v>
-      </c>
-      <c r="B337" t="s">
-        <v>661</v>
-      </c>
-      <c r="E337" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
-        <v>391</v>
-      </c>
-      <c r="B338" t="s">
-        <v>662</v>
-      </c>
-      <c r="E338" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A337" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="C337" s="9"/>
+      <c r="D337" s="9"/>
+      <c r="E337" s="9" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A338" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>954</v>
+      </c>
+      <c r="C338" s="9"/>
+      <c r="D338" s="9"/>
+      <c r="E338" s="9" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="B339" t="s">
-        <v>663</v>
+        <v>610</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="B340" t="s">
-        <v>664</v>
+        <v>611</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
-        <v>87</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E341" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
-        <v>461</v>
-      </c>
-      <c r="B342" t="s">
-        <v>665</v>
-      </c>
-      <c r="E342" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B341" s="11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C341" s="10"/>
+      <c r="D341" s="10"/>
+      <c r="E341" s="10" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A342" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="B342" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="C342" s="10"/>
+      <c r="D342" s="10"/>
+      <c r="E342" s="10" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>457</v>
-      </c>
-      <c r="B343" t="s">
-        <v>666</v>
-      </c>
-      <c r="E343" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E343" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>14</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E344" t="s">
-        <v>180</v>
+        <v>257</v>
+      </c>
+      <c r="B344" t="s">
+        <v>612</v>
+      </c>
+      <c r="E344" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
-        <v>86</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="E345" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
-        <v>407</v>
-      </c>
-      <c r="B346" t="s">
-        <v>667</v>
-      </c>
-      <c r="E346" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
-        <v>412</v>
-      </c>
-      <c r="B347" t="s">
-        <v>725</v>
-      </c>
-      <c r="E347" s="5" t="s">
-        <v>165</v>
+      <c r="A345" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B345" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C345" s="10"/>
+      <c r="D345" s="10"/>
+      <c r="E345" s="10" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A346" s="9" t="s">
+        <v>899</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="C346" s="9"/>
+      <c r="D346" s="9"/>
+      <c r="E346" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A347" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="C347" s="9"/>
+      <c r="D347" s="9"/>
+      <c r="E347" s="9" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>433</v>
+        <v>332</v>
       </c>
       <c r="B348" t="s">
-        <v>668</v>
+        <v>613</v>
       </c>
       <c r="E348" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>9</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="E349" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+      <c r="B349" t="s">
+        <v>614</v>
+      </c>
+      <c r="E349" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>54</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E350" t="s">
-        <v>213</v>
+        <v>277</v>
+      </c>
+      <c r="B350" t="s">
+        <v>615</v>
+      </c>
+      <c r="E350" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="B351" t="s">
-        <v>669</v>
-      </c>
-      <c r="E351" s="5"/>
+        <v>616</v>
+      </c>
+      <c r="E351" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>235</v>
+        <v>313</v>
       </c>
       <c r="B352" t="s">
-        <v>670</v>
+        <v>617</v>
       </c>
       <c r="E352" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>458</v>
-      </c>
-      <c r="B353" t="s">
-        <v>671</v>
-      </c>
-      <c r="E353" s="5" t="s">
-        <v>165</v>
+        <v>58</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E353" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>293</v>
+        <v>396</v>
       </c>
       <c r="B354" t="s">
-        <v>672</v>
+        <v>618</v>
       </c>
       <c r="E354" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>130</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E355" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="B355" t="s">
+        <v>619</v>
+      </c>
+      <c r="E355" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>440</v>
-      </c>
-      <c r="B356" t="s">
-        <v>673</v>
-      </c>
-      <c r="E356" s="5" t="s">
-        <v>165</v>
+        <v>28</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E356" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="B357" t="s">
-        <v>674</v>
+        <v>717</v>
       </c>
       <c r="E357" s="5" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>360</v>
+        <v>299</v>
       </c>
       <c r="B358" t="s">
-        <v>675</v>
+        <v>620</v>
       </c>
       <c r="E358" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>456</v>
+        <v>397</v>
       </c>
       <c r="B359" t="s">
-        <v>676</v>
+        <v>621</v>
       </c>
       <c r="E359" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>421</v>
+        <v>370</v>
       </c>
       <c r="B360" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
       <c r="E360" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>85</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E361" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+      <c r="B361" t="s">
+        <v>623</v>
+      </c>
+      <c r="E361" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>245</v>
-      </c>
-      <c r="B362" t="s">
-        <v>726</v>
-      </c>
-      <c r="E362" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E362" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>40</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="E363" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="B363" t="s">
+        <v>624</v>
+      </c>
+      <c r="E363" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>55</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E364" t="s">
-        <v>180</v>
+        <v>222</v>
+      </c>
+      <c r="B364" t="s">
+        <v>625</v>
+      </c>
+      <c r="E364" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>5</v>
+        <v>359</v>
       </c>
       <c r="B365" t="s">
-        <v>677</v>
+        <v>626</v>
       </c>
       <c r="E365" s="5" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>448</v>
+        <v>398</v>
       </c>
       <c r="B366" t="s">
-        <v>678</v>
+        <v>627</v>
       </c>
       <c r="E366" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>43</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E367" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="B367" t="s">
+        <v>628</v>
+      </c>
+      <c r="E367" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>129</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E368" t="s">
-        <v>165</v>
+        <v>437</v>
+      </c>
+      <c r="B368" t="s">
+        <v>629</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>219</v>
+        <v>798</v>
       </c>
       <c r="E369" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>382</v>
-      </c>
-      <c r="B370" t="s">
-        <v>679</v>
-      </c>
-      <c r="E370" s="5" t="s">
-        <v>165</v>
+        <v>175</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E370" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="B371" t="s">
-        <v>680</v>
+        <v>630</v>
       </c>
       <c r="E371" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>84</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E372" t="s">
-        <v>165</v>
+        <v>290</v>
+      </c>
+      <c r="B372" t="s">
+        <v>631</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>423</v>
+        <v>338</v>
       </c>
       <c r="B373" t="s">
-        <v>681</v>
+        <v>632</v>
       </c>
       <c r="E373" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A374" t="s">
-        <v>454</v>
-      </c>
-      <c r="B374" t="s">
-        <v>682</v>
-      </c>
-      <c r="E374" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A374" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="B374" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="C374" s="9"/>
+      <c r="D374" s="9"/>
+      <c r="E374" s="9" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>83</v>
-      </c>
-      <c r="B375" t="s">
-        <v>727</v>
-      </c>
-      <c r="E375" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E375" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>155</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C376" t="s">
-        <v>152</v>
-      </c>
-      <c r="E376" t="s">
-        <v>200</v>
+        <v>90</v>
+      </c>
+      <c r="B376" t="s">
+        <v>633</v>
+      </c>
+      <c r="E376" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>222</v>
+        <v>760</v>
       </c>
       <c r="E377" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A378" t="s">
+      <c r="A378" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B378" s="11" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C378" s="10"/>
+      <c r="D378" s="10"/>
+      <c r="E378" s="10" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A379" s="10" t="s">
+        <v>999</v>
+      </c>
+      <c r="B379" s="11" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C379" s="10"/>
+      <c r="D379" s="10"/>
+      <c r="E379" s="10" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>3</v>
+      </c>
+      <c r="B380" t="s">
+        <v>634</v>
+      </c>
+      <c r="E380" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>466</v>
+      </c>
+      <c r="B381" t="s">
+        <v>635</v>
+      </c>
+      <c r="E381" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>44</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="E382" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>89</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E383" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>443</v>
+      </c>
+      <c r="B384" t="s">
+        <v>636</v>
+      </c>
+      <c r="E384" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>329</v>
+      </c>
+      <c r="B385" t="s">
+        <v>637</v>
+      </c>
+      <c r="E385" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>426</v>
+      </c>
+      <c r="B386" t="s">
+        <v>638</v>
+      </c>
+      <c r="E386" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>391</v>
+      </c>
+      <c r="B387" t="s">
+        <v>639</v>
+      </c>
+      <c r="E387" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>405</v>
+      </c>
+      <c r="B388" t="s">
+        <v>640</v>
+      </c>
+      <c r="E388" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>469</v>
+      </c>
+      <c r="B389" t="s">
+        <v>718</v>
+      </c>
+      <c r="E389" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A390" s="10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B390" s="11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C390" s="10"/>
+      <c r="D390" s="10"/>
+      <c r="E390" s="10" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>88</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E391" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A392" s="10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B392" s="11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C392" s="10"/>
+      <c r="D392" s="10"/>
+      <c r="E392" s="10" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>402</v>
+      </c>
+      <c r="B393" t="s">
+        <v>641</v>
+      </c>
+      <c r="E393" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A394" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="B394" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="C394" s="9"/>
+      <c r="D394" s="9"/>
+      <c r="E394" s="9" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A395" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="B395" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="C395" s="9"/>
+      <c r="D395" s="9"/>
+      <c r="E395" s="9" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>151</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E396" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>337</v>
+      </c>
+      <c r="B397" t="s">
+        <v>642</v>
+      </c>
+      <c r="E397" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A398" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="B398" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="C398" s="9"/>
+      <c r="D398" s="9"/>
+      <c r="E398" s="9" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>467</v>
+      </c>
+      <c r="B399" t="s">
+        <v>643</v>
+      </c>
+      <c r="E399" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A400" s="10" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B400" s="11" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C400" s="10"/>
+      <c r="D400" s="10"/>
+      <c r="E400" s="10" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>36</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E401" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>236</v>
+      </c>
+      <c r="B402" t="s">
+        <v>644</v>
+      </c>
+      <c r="E402" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>344</v>
+      </c>
+      <c r="B403" t="s">
+        <v>645</v>
+      </c>
+      <c r="E403" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A404" s="10" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B404" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C404" s="10"/>
+      <c r="D404" s="10"/>
+      <c r="E404" s="10" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A405" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="B405" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="C405" s="9"/>
+      <c r="D405" s="9"/>
+      <c r="E405" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A406" s="10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B406" s="11" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C406" s="10"/>
+      <c r="D406" s="10"/>
+      <c r="E406" s="10" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>302</v>
+      </c>
+      <c r="B407" t="s">
+        <v>646</v>
+      </c>
+      <c r="E407" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>57</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="E408" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>312</v>
+      </c>
+      <c r="B409" t="s">
+        <v>647</v>
+      </c>
+      <c r="E409" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>438</v>
+      </c>
+      <c r="B410" t="s">
+        <v>648</v>
+      </c>
+      <c r="E410" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>361</v>
+      </c>
+      <c r="B411" t="s">
+        <v>649</v>
+      </c>
+      <c r="E411" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A412" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="B412" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="C412" s="9"/>
+      <c r="D412" s="9"/>
+      <c r="E412" s="9" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>350</v>
+      </c>
+      <c r="B413" t="s">
+        <v>650</v>
+      </c>
+      <c r="E413" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>325</v>
+      </c>
+      <c r="B414" t="s">
+        <v>719</v>
+      </c>
+      <c r="E414" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>460</v>
+      </c>
+      <c r="B415" t="s">
+        <v>651</v>
+      </c>
+      <c r="E415" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>456</v>
+      </c>
+      <c r="B416" t="s">
+        <v>652</v>
+      </c>
+      <c r="E416" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>154</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E417" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A418" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="B418" s="8" t="s">
+        <v>962</v>
+      </c>
+      <c r="C418" s="9"/>
+      <c r="D418" s="9"/>
+      <c r="E418" s="9" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>406</v>
+      </c>
+      <c r="B419" t="s">
+        <v>653</v>
+      </c>
+      <c r="E419" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>365</v>
+      </c>
+      <c r="B420" t="s">
+        <v>654</v>
+      </c>
+      <c r="E420" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>320</v>
+      </c>
+      <c r="B421" t="s">
+        <v>720</v>
+      </c>
+      <c r="E421" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A422" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="B422" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="C422" s="9"/>
+      <c r="D422" s="9"/>
+      <c r="E422" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>446</v>
+      </c>
+      <c r="B423" t="s">
+        <v>655</v>
+      </c>
+      <c r="E423" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>425</v>
+      </c>
+      <c r="B424" t="s">
+        <v>656</v>
+      </c>
+      <c r="E424" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A425" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="B425" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="C425" s="9"/>
+      <c r="D425" s="9"/>
+      <c r="E425" s="9" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>35</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E426" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A427" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="B427" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="C427" s="9"/>
+      <c r="D427" s="9"/>
+      <c r="E427" s="9" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A428" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B428" s="11" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C428" s="10"/>
+      <c r="D428" s="10"/>
+      <c r="E428" s="10" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>407</v>
+      </c>
+      <c r="B429" t="s">
+        <v>657</v>
+      </c>
+      <c r="E429" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>387</v>
+      </c>
+      <c r="B430" t="s">
+        <v>658</v>
+      </c>
+      <c r="E430" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A431" s="10" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B431" s="11" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C431" s="10"/>
+      <c r="D431" s="10"/>
+      <c r="E431" s="10" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>404</v>
+      </c>
+      <c r="B432" t="s">
+        <v>659</v>
+      </c>
+      <c r="E432" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A433" s="9" t="s">
+        <v>964</v>
+      </c>
+      <c r="B433" s="8" t="s">
+        <v>965</v>
+      </c>
+      <c r="C433" s="9"/>
+      <c r="D433" s="9"/>
+      <c r="E433" s="9" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>238</v>
+      </c>
+      <c r="B434" t="s">
+        <v>660</v>
+      </c>
+      <c r="E434" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>86</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E435" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A436" s="10" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B436" s="11" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C436" s="10"/>
+      <c r="D436" s="10"/>
+      <c r="E436" s="10" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>457</v>
+      </c>
+      <c r="B437" t="s">
+        <v>661</v>
+      </c>
+      <c r="E437" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A438" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="B438" s="8" t="s">
+        <v>968</v>
+      </c>
+      <c r="C438" s="9"/>
+      <c r="D438" s="9"/>
+      <c r="E438" s="9" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>453</v>
+      </c>
+      <c r="B439" t="s">
+        <v>662</v>
+      </c>
+      <c r="E439" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>14</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E440" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>85</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E441" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>403</v>
+      </c>
+      <c r="B442" t="s">
+        <v>663</v>
+      </c>
+      <c r="E442" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A443" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="B443" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="C443" s="9"/>
+      <c r="D443" s="9"/>
+      <c r="E443" s="9" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>408</v>
+      </c>
+      <c r="B444" t="s">
+        <v>721</v>
+      </c>
+      <c r="E444" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>429</v>
+      </c>
+      <c r="B445" t="s">
+        <v>664</v>
+      </c>
+      <c r="E445" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A446" s="10" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B446" s="11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C446" s="10"/>
+      <c r="D446" s="10"/>
+      <c r="E446" s="10" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>9</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="E447" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>54</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E448" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A449" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B449" s="11" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C449" s="10"/>
+      <c r="D449" s="10"/>
+      <c r="E449" s="10" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>413</v>
+      </c>
+      <c r="B450" t="s">
+        <v>665</v>
+      </c>
+      <c r="E450" s="5"/>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>231</v>
+      </c>
+      <c r="B451" t="s">
+        <v>666</v>
+      </c>
+      <c r="E451" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>454</v>
+      </c>
+      <c r="B452" t="s">
+        <v>667</v>
+      </c>
+      <c r="E452" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>289</v>
+      </c>
+      <c r="B453" t="s">
+        <v>668</v>
+      </c>
+      <c r="E453" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A454" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="B454" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="C454" s="9"/>
+      <c r="D454" s="9"/>
+      <c r="E454" s="9" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A455" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B455" s="11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C455" s="10"/>
+      <c r="D455" s="10"/>
+      <c r="E455" s="10" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>129</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E456" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>436</v>
+      </c>
+      <c r="B457" t="s">
+        <v>669</v>
+      </c>
+      <c r="E457" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>319</v>
+      </c>
+      <c r="B458" t="s">
+        <v>670</v>
+      </c>
+      <c r="E458" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>356</v>
+      </c>
+      <c r="B459" t="s">
+        <v>671</v>
+      </c>
+      <c r="E459" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>452</v>
+      </c>
+      <c r="B460" t="s">
+        <v>672</v>
+      </c>
+      <c r="E460" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>417</v>
+      </c>
+      <c r="B461" t="s">
+        <v>586</v>
+      </c>
+      <c r="E461" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A462" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="B462" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="C462" s="9"/>
+      <c r="D462" s="9"/>
+      <c r="E462" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>84</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E463" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>241</v>
+      </c>
+      <c r="B464" t="s">
+        <v>722</v>
+      </c>
+      <c r="E464" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>40</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="E465" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A466" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B466" s="11" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C466" s="10"/>
+      <c r="D466" s="10"/>
+      <c r="E466" s="10" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>55</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E467" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>5</v>
+      </c>
+      <c r="B468" t="s">
+        <v>673</v>
+      </c>
+      <c r="E468" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>444</v>
+      </c>
+      <c r="B469" t="s">
+        <v>674</v>
+      </c>
+      <c r="E469" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>43</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E470" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>128</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E471" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>127</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E472" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>378</v>
+      </c>
+      <c r="B473" t="s">
+        <v>675</v>
+      </c>
+      <c r="E473" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>418</v>
+      </c>
+      <c r="B474" t="s">
+        <v>676</v>
+      </c>
+      <c r="E474" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>419</v>
+      </c>
+      <c r="B475" t="s">
+        <v>677</v>
+      </c>
+      <c r="E475" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>450</v>
+      </c>
+      <c r="B476" t="s">
+        <v>678</v>
+      </c>
+      <c r="E476" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A477" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="B477" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="C477" s="9"/>
+      <c r="D477" s="9"/>
+      <c r="E477" s="9" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A478" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="B478" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="C478" s="9"/>
+      <c r="D478" s="9"/>
+      <c r="E478" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>83</v>
+      </c>
+      <c r="B479" t="s">
+        <v>723</v>
+      </c>
+      <c r="E479" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>153</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E480" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>126</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E481" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
         <v>18</v>
       </c>
-      <c r="B378" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E378" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
-        <v>424</v>
-      </c>
-      <c r="B379" t="s">
-        <v>728</v>
-      </c>
-      <c r="E379" s="5" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
+      <c r="B482" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E482" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>420</v>
+      </c>
+      <c r="B483" t="s">
+        <v>724</v>
+      </c>
+      <c r="E483" s="5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A484" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="B484" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="C484" s="9"/>
+      <c r="D484" s="9"/>
+      <c r="E484" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
         <v>82</v>
       </c>
-      <c r="B380" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E380" t="s">
-        <v>180</v>
-      </c>
+      <c r="B485" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E485" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B486" s="13"/>
+      <c r="F486" s="14"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E380">
-    <sortCondition ref="A1:A380"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F486">
+    <sortCondition ref="A1:A486"/>
   </sortState>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="A1:A380 A487:A1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576 F1">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="F1 E1:E1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"''"</formula>
     </cfRule>
   </conditionalFormatting>
